--- a/program.xlsx
+++ b/program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975B7B33-9BE3-4493-8D05-187A62B7695F}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DD7AFD-1600-4452-87D2-EAE7C5DE7A9A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38520" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="6660" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA2425" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +143,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,213 +424,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E17" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>45553</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUM($B$3:B3)/30</f>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM($C$3:C3)/30</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <f>A3+7</f>
+        <v>45560</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM($B$3:B4)/30</f>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM($C$3:C4)/30</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <f t="shared" ref="A5:A17" si="0">A4+7</f>
+        <v>45567</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM($B$3:B5)/30</f>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM($C$3:C5)/30</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>45574</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUM($B$3:B6)/30</f>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM($C$3:C6)/30</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM($B$3:B7)/30</f>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>45581</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM($C$3:C7)/30</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>45588</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM($B$3:B8)/30</f>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM($C$3:C8)/30</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>45595</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM($B$3:B9)/30</f>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM($C$3:C9)/30</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>45602</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SUM($B$3:B10)/30</f>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM($C$3:C10)/30</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>45609</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM($B$3:B11)/30</f>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM($C$3:C11)/30</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>45616</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUM($B$3:B12)/30</f>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM($C$3:C12)/30</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>45623</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM($B$3:B13)/30</f>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM($C$3:C13)/30</f>
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM($B$3:B14)/30</f>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <f>A13+7</f>
+        <v>45630</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM($C$3:C14)/30</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SUM($B$3:B15)/30</f>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>45637</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUM($C$3:C15)/30</f>
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>45644</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <f>SUM($B$3:B16)/30</f>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM($C$3:C16)/30</f>
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>45651</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <f>SUM($B$3:B17)/30</f>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM($C$3:C17)/30</f>
         <v>1</v>
       </c>
     </row>

--- a/program.xlsx
+++ b/program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DD7AFD-1600-4452-87D2-EAE7C5DE7A9A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B0E8E08-B5A5-41CF-B229-0D8BB8A9A90A}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="6660" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:E17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,7 +444,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -472,8 +472,8 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <f>SUM($C$3:C3)/30</f>
-        <v>6.6666666666666666E-2</v>
+        <f>SUM($C$3:C3)/$C$1</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -488,8 +488,8 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <f>SUM($C$3:C4)/30</f>
-        <v>0.13333333333333333</v>
+        <f>SUM($C$3:C4)/$C$1</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -504,8 +504,8 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <f>SUM($C$3:C5)/30</f>
-        <v>0.2</v>
+        <f>SUM($C$3:C5)/$C$1</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -520,8 +520,8 @@
         <v>2</v>
       </c>
       <c r="E6" s="4">
-        <f>SUM($C$3:C6)/30</f>
-        <v>0.26666666666666666</v>
+        <f>SUM($C$3:C6)/$C$1</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -536,8 +536,8 @@
         <v>2</v>
       </c>
       <c r="E7" s="4">
-        <f>SUM($C$3:C7)/30</f>
-        <v>0.33333333333333331</v>
+        <f>SUM($C$3:C7)/$C$1</f>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -552,8 +552,8 @@
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <f>SUM($C$3:C8)/30</f>
-        <v>0.4</v>
+        <f>SUM($C$3:C8)/$C$1</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -568,8 +568,8 @@
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <f>SUM($C$3:C9)/30</f>
-        <v>0.46666666666666667</v>
+        <f>SUM($C$3:C9)/$C$1</f>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -584,8 +584,8 @@
         <v>2</v>
       </c>
       <c r="E10" s="4">
-        <f>SUM($C$3:C10)/30</f>
-        <v>0.53333333333333333</v>
+        <f>SUM($C$3:C10)/$C$1</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -600,8 +600,8 @@
         <v>2</v>
       </c>
       <c r="E11" s="4">
-        <f>SUM($C$3:C11)/30</f>
-        <v>0.6</v>
+        <f>SUM($C$3:C11)/$C$1</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -616,8 +616,8 @@
         <v>2</v>
       </c>
       <c r="E12" s="4">
-        <f>SUM($C$3:C12)/30</f>
-        <v>0.66666666666666663</v>
+        <f>SUM($C$3:C12)/$C$1</f>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -632,8 +632,8 @@
         <v>2</v>
       </c>
       <c r="E13" s="4">
-        <f>SUM($C$3:C13)/30</f>
-        <v>0.73333333333333328</v>
+        <f>SUM($C$3:C13)/$C$1</f>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -641,12 +641,15 @@
         <f>A13+7</f>
         <v>45630</v>
       </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="4">
-        <f>SUM($C$3:C14)/30</f>
-        <v>0.8</v>
+        <f>SUM($C$3:C14)/$C$1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -654,12 +657,15 @@
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="4">
-        <f>SUM($C$3:C15)/30</f>
-        <v>0.8666666666666667</v>
+        <f>SUM($C$3:C15)/$C$1</f>
+        <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -667,32 +673,17 @@
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <f>SUM($C$3:C16)/30</f>
-        <v>0.93333333333333335</v>
+        <f>SUM($C$3:C16)/$C$1</f>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>45651</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SUM($C$3:C17)/30</f>
-        <v>1</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/program.xlsx
+++ b/program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B0E8E08-B5A5-41CF-B229-0D8BB8A9A90A}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C362C6B5-1DA8-4FB2-AEC6-7A2CB39A1EB3}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6660" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58170" yWindow="16770" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA2425" sheetId="1" r:id="rId1"/>
@@ -34,23 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Data understanding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Data preprocessing</t>
   </si>
   <si>
-    <t>Data modeling</t>
-  </si>
-  <si>
     <t>Evaluation</t>
   </si>
   <si>
-    <t>Deployment</t>
-  </si>
-  <si>
     <t>What</t>
   </si>
   <si>
@@ -60,18 +51,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Evaluation (lab)</t>
-  </si>
-  <si>
-    <t>Neural networks (lab)</t>
-  </si>
-  <si>
-    <t>Sklearn (lab)</t>
-  </si>
-  <si>
-    <t>Pandas (lab)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -84,10 +63,34 @@
     <t>(Deep) neural networks</t>
   </si>
   <si>
-    <t>Intro + CRISP-DM + Domain understanding</t>
-  </si>
-  <si>
-    <t>AutoML frameworks</t>
+    <t>Intro + CRISP-DM + Lab 00</t>
+  </si>
+  <si>
+    <t>Business Understanding + Data understanding</t>
+  </si>
+  <si>
+    <t>Lab: Data understanding + Housing</t>
+  </si>
+  <si>
+    <t>Lab: Data Preparation + Housing</t>
+  </si>
+  <si>
+    <t>Lab: Modeling + Housing</t>
+  </si>
+  <si>
+    <t>Lab: Neural networks</t>
+  </si>
+  <si>
+    <t>Modeling</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Lab: guided case study</t>
   </si>
 </sst>
 </file>
@@ -111,12 +114,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +159,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,9 +449,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -435,86 +460,102 @@
     <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>45553</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9">
         <f>SUM($C$3:C3)/$C$1</f>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <f>A3+7</f>
         <v>45560</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9">
         <f>SUM($C$3:C4)/$C$1</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <f t="shared" ref="A5:A17" si="0">A4+7</f>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A16" si="0">A4+7</f>
         <v>45567</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9">
         <f>SUM($C$3:C5)/$C$1</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>45574</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -523,14 +564,17 @@
         <f>SUM($C$3:C6)/$C$1</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>45581</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -539,14 +583,17 @@
         <f>SUM($C$3:C7)/$C$1</f>
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>45588</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -555,8 +602,11 @@
         <f>SUM($C$3:C8)/$C$1</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>45595</v>
@@ -571,14 +621,17 @@
         <f>SUM($C$3:C9)/$C$1</f>
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>45602</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -587,14 +640,17 @@
         <f>SUM($C$3:C10)/$C$1</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>45609</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -604,13 +660,13 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>45616</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -620,13 +676,13 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>45623</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -635,14 +691,17 @@
         <f>SUM($C$3:C13)/$C$1</f>
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f>A13+7</f>
         <v>45630</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -652,13 +711,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>45637</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -668,7 +724,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>45644</v>

--- a/program.xlsx
+++ b/program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C362C6B5-1DA8-4FB2-AEC6-7A2CB39A1EB3}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31AA0DA4-16F4-4826-A2F7-8A5120D5F681}"/>
   <bookViews>
-    <workbookView xWindow="58170" yWindow="16770" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58740" yWindow="17340" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA2425" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Lab: Modeling + Housing</t>
   </si>
   <si>
-    <t>Lab: Neural networks</t>
-  </si>
-  <si>
     <t>Modeling</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Lab: guided case study</t>
+  </si>
+  <si>
+    <t>Data preprocessing (until data integration)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -506,7 +506,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -526,7 +526,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -546,26 +546,27 @@
         <v>0.25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>45574</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
         <f>SUM($C$3:C6)/$C$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -574,7 +575,7 @@
         <v>45581</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -584,7 +585,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -593,7 +594,7 @@
         <v>45588</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -603,7 +604,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -612,7 +613,7 @@
         <v>45595</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -622,7 +623,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -631,7 +632,7 @@
         <v>45602</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -641,7 +642,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -649,8 +650,8 @@
         <f t="shared" si="0"/>
         <v>45609</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>14</v>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -682,7 +683,7 @@
         <v>45623</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -692,7 +693,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">

--- a/program.xlsx
+++ b/program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31AA0DA4-16F4-4826-A2F7-8A5120D5F681}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0141F24E-7723-46CC-8B77-92115A7C63B7}"/>
   <bookViews>
-    <workbookView xWindow="58740" yWindow="17340" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA2425" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,12 +452,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.453125" style="1" bestFit="1" customWidth="1"/>

--- a/program.xlsx
+++ b/program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0141F24E-7723-46CC-8B77-92115A7C63B7}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B635B6-CD3B-4215-8F7E-A2562CD3D82F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA2425" sheetId="1" r:id="rId1"/>
@@ -34,32 +34,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Data preprocessing</t>
   </si>
   <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
     <t>What</t>
   </si>
   <si>
     <t>When</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Coverage</t>
   </si>
   <si>
-    <t>Challenge</t>
-  </si>
-  <si>
     <t>(Deep) neural networks</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t>Lab: Data Preparation + Housing</t>
   </si>
   <si>
-    <t>Lab: Modeling + Housing</t>
-  </si>
-  <si>
     <t>Modeling</t>
   </si>
   <si>
@@ -87,10 +72,49 @@
     <t>x</t>
   </si>
   <si>
-    <t>Lab: guided case study</t>
-  </si>
-  <si>
     <t>Data preprocessing (until data integration)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Summing up</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Lab 4.2 (11-13)</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Lab: Challenge</t>
+  </si>
+  <si>
+    <t>Lab: Housing + Titanic</t>
+  </si>
+  <si>
+    <t>Lab: Voting</t>
   </si>
 </sst>
 </file>
@@ -114,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,7 +153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,15 +190,43 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -449,300 +507,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>45553</v>
+      </c>
+      <c r="B2" s="10">
+        <f>WEEKDAY(A2)-1</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1">
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14">
+        <f>SUM($F$2:F2)/$F$17</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <f>A2+7</f>
+        <v>45560</v>
+      </c>
+      <c r="B3" s="10">
+        <f t="shared" ref="B3:B15" si="0">WEEKDAY(A3)-1</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14">
+        <f>SUM($F$2:F3)/$F$17</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A15" si="1">A3+7</f>
+        <v>45567</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM($F$2:F4)/$F$17</f>
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <f t="shared" si="1"/>
+        <v>45574</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <f>SUM($F$2:F5)/$F$17</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>45581</v>
+      </c>
+      <c r="B6" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM($F$2:F6)/$F$17</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>45588</v>
+      </c>
+      <c r="B7" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14">
+        <f>SUM($F$2:F7)/$F$17</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>45595</v>
+      </c>
+      <c r="B8" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="14">
+        <f>SUM($F$2:F8)/$F$17</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>45602</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14">
+        <f>SUM($F$2:F9)/$F$17</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>45609</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM($F$2:F10)/$F$17</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>45616</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="14">
+        <f>SUM($F$2:F11)/$F$17</f>
+        <v>0.75</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>45623</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM($F$2:F12)/$F$17</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <f>A12+7</f>
+        <v>45630</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14">
+        <f>SUM($F$2:F13)/$F$17</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>45637</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>45553</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9">
-        <f>SUM($C$3:C3)/$C$1</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <f>A3+7</f>
-        <v>45560</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9">
-        <f>SUM($C$3:C4)/$C$1</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <f t="shared" ref="A5:A16" si="0">A4+7</f>
-        <v>45567</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9">
-        <f>SUM($C$3:C5)/$C$1</f>
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <f t="shared" si="0"/>
-        <v>45574</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
-        <f>SUM($C$3:C6)/$C$1</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
-        <v>45581</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM($C$3:C7)/$C$1</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>45588</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <f>SUM($C$3:C8)/$C$1</f>
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>45595</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <f>SUM($C$3:C9)/$C$1</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>45602</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <f>SUM($C$3:C10)/$C$1</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>45609</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM($F$2:F14)/$F$17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>45644</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM($C$3:C11)/$C$1</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>45616</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="G15" s="4">
+        <f>SUM($F$2:F15)/$F$17</f>
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUM($C$3:C12)/$C$1</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>45623</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM($C$3:C13)/$C$1</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <f>A13+7</f>
-        <v>45630</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM($C$3:C14)/$C$1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>45637</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <f>SUM($C$3:C15)/$C$1</f>
-        <v>1.0833333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>45644</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SUM($C$3:C16)/$C$1</f>
-        <v>1.1666666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="E17" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8">
+        <f>SUM(F2:F14)</f>
+        <v>24</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/program.xlsx
+++ b/program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B635B6-CD3B-4215-8F7E-A2562CD3D82F}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4C854B-8C13-4D10-92D6-2EC152DCB0DB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA2425" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>Data preprocessing</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,7 +827,7 @@
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="11">
         <v>2</v>
       </c>
       <c r="G11" s="14">
@@ -854,16 +854,18 @@
         <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="8">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11">
         <v>2</v>
       </c>
       <c r="G12" s="14">
         <f>SUM($F$2:F12)/$F$17</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
@@ -881,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="8">
         <v>2</v>

--- a/program.xlsx
+++ b/program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4C854B-8C13-4D10-92D6-2EC152DCB0DB}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F45D4746-5F08-4308-9455-D3AF9F980459}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Data preprocessing</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Topics</t>
   </si>
   <si>
-    <t>Lab 4.2 (11-13)</t>
-  </si>
-  <si>
     <t>Tot</t>
   </si>
   <si>
@@ -114,7 +111,10 @@
     <t>Lab: Housing + Titanic</t>
   </si>
   <si>
-    <t>Lab: Voting</t>
+    <t>Lab: Challenge Solution + AutoML</t>
+  </si>
+  <si>
+    <t>Lab 4.2 (13-15)</t>
   </si>
 </sst>
 </file>
@@ -138,18 +138,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -176,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,8 +182,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,10 +192,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -215,16 +207,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -510,14 +510,14 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -526,10 +526,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -552,387 +552,392 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="18">
         <v>45553</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <f>WEEKDAY(A2)-1</f>
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="F2" s="9">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12">
         <f>SUM($F$2:F2)/$F$17</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="18">
         <f>A2+7</f>
         <v>45560</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <f t="shared" ref="B3:B15" si="0">WEEKDAY(A3)-1</f>
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11">
-        <v>2</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
         <f>SUM($F$2:F3)/$F$17</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="18">
         <f t="shared" ref="A4:A15" si="1">A3+7</f>
         <v>45567</v>
       </c>
-      <c r="B4" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
         <f>SUM($F$2:F4)/$F$17</f>
         <v>0.25</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="18">
         <f t="shared" si="1"/>
         <v>45574</v>
       </c>
-      <c r="B5" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12">
         <f>SUM($F$2:F5)/$F$17</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="18">
         <f t="shared" si="1"/>
         <v>45581</v>
       </c>
-      <c r="B6" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
         <f>SUM($F$2:F6)/$F$17</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="18">
         <f t="shared" si="1"/>
         <v>45588</v>
       </c>
-      <c r="B7" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
         <f>SUM($F$2:F7)/$F$17</f>
         <v>0.5</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
         <f t="shared" si="1"/>
         <v>45595</v>
       </c>
-      <c r="B8" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>21</v>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <f>SUM($F$2:F8)/$F$17</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="18">
         <f t="shared" si="1"/>
         <v>45602</v>
       </c>
-      <c r="B9" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12">
         <f>SUM($F$2:F9)/$F$17</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="18">
         <f t="shared" si="1"/>
         <v>45609</v>
       </c>
-      <c r="B10" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12">
         <f>SUM($F$2:F10)/$F$17</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="18">
         <f t="shared" si="1"/>
         <v>45616</v>
       </c>
-      <c r="B11" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12">
         <f>SUM($F$2:F11)/$F$17</f>
         <v>0.75</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="18">
         <f t="shared" si="1"/>
         <v>45623</v>
       </c>
-      <c r="B12" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
         <f>SUM($F$2:F12)/$F$17</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="18">
         <f>A12+7</f>
         <v>45630</v>
       </c>
-      <c r="B13" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12">
         <f>SUM($F$2:F13)/$F$17</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="18">
         <f t="shared" si="1"/>
         <v>45637</v>
       </c>
-      <c r="B14" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>2</v>
       </c>
       <c r="G14" s="4">
         <f>SUM($F$2:F14)/$F$17</f>
         <v>1</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="18">
         <f t="shared" si="1"/>
         <v>45644</v>
       </c>
-      <c r="B15" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="4">
@@ -941,22 +946,22 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6">
         <f>SUM(F2:F14)</f>
         <v>24</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17" s="13" t="s">
-        <v>23</v>
+      <c r="E17" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F17" s="1">
         <v>24</v>

--- a/program.xlsx
+++ b/program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F45D4746-5F08-4308-9455-D3AF9F980459}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B5218F7-D860-4D89-86F8-A9F4710F23DA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA2425" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Lab</t>
   </si>
   <si>
-    <t>Summing up</t>
-  </si>
-  <si>
     <t>Room</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Lab 4.2 (13-15)</t>
+  </si>
+  <si>
+    <t>Fairness + Summing up</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,16 +533,16 @@
         <v>14</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>15</v>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>15</v>
@@ -618,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>16</v>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>15</v>
@@ -676,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>15</v>
@@ -790,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>15</v>
@@ -819,13 +819,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="9">
         <v>2</v>
@@ -848,13 +848,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="9">
         <v>2</v>
@@ -877,13 +877,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="9">
         <v>2</v>
@@ -906,13 +906,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -951,7 +951,7 @@
       <c r="C16" s="20"/>
       <c r="D16" s="7"/>
       <c r="E16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F2:F14)</f>
@@ -961,7 +961,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
         <v>24</v>
